--- a/agentdata.xlsx
+++ b/agentdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP4"/>
+  <dimension ref="A1:DP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,597 +1645,597 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BY3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BZ3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CA3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="CE3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="CF3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CG3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="CH3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CI3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="CJ3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="CK3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CL3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="CM3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="CN3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="CP3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="CQ3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="CR3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CS3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="CT3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="CU3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CV3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="CX3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="CY3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="CZ3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="DA3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DB3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="DC3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="DD3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DE3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="DF3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="DG3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DH3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="DI3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="DJ3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DK3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="DL3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DM3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="DN3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="DO3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="DP3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2247,12 +2247,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2262,582 +2262,5398 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CX9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DA9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DP9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CY10" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="CZ10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="DO10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CP11" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CR11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="CT11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CX11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CY11" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CZ11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DA11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DD11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DE11" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DH11" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="DP11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CP12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="CY12" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="CZ12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="DA12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DB12" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DD12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DK12" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BW4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BX4" t="inlineStr">
+      <c r="DL12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DM12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="DN12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="BZ4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CA4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="CE4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CF4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="CG4" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="CH4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="CI4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CJ4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="CK4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="CL4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CM4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="CN4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CP4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="CQ4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="CR4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="CS4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="CV4" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="CW4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CX4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CY4" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="CZ4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DA4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="DB4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="DC4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="DD4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="DE4" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="DF4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="DG4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="DH4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="DI4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="DJ4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="DK4" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="DL4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="DM4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="DN4" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="DO4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="DP4" t="inlineStr">
-        <is>
-          <t>12</t>
+      <c r="DO12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DP12" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
